--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13152" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17447" uniqueCount="352">
   <si>
     <t>CXD</t>
   </si>
@@ -1114,6 +1114,9 @@
   <si>
     <t>12098</t>
   </si>
+  <si>
+    <t>21245</t>
+  </si>
 </sst>
 </file>
 
@@ -4404,10 +4407,10 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="T26" t="s" s="11">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="U26" t="s" s="11">
         <v>294</v>
@@ -7768,10 +7771,10 @@
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T55" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U55" t="s" s="11">
         <v>294</v>
@@ -8116,10 +8119,10 @@
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T58" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U58" t="s" s="11">
         <v>294</v>
@@ -8235,7 +8238,7 @@
         <v>294</v>
       </c>
       <c r="T59" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="U59" t="s" s="11">
         <v>294</v>
@@ -8348,7 +8351,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17447" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21739" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -1117,6 +1117,78 @@
   <si>
     <t>21245</t>
   </si>
+  <si>
+    <t>9466</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>8311</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>7984</t>
+  </si>
+  <si>
+    <t>4888</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>4578</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>6746</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>3323</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>3720.000000</t>
+  </si>
+  <si>
+    <t>1320.000000</t>
+  </si>
+  <si>
+    <t>2400.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -2596,7 +2668,7 @@
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2617,13 +2689,13 @@
         <v>294</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="T9" t="s" s="11">
         <v>294</v>
@@ -2638,7 +2710,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2656,7 +2728,7 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
@@ -2665,7 +2737,7 @@
         <v>294</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2712,7 +2784,7 @@
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2733,13 +2805,13 @@
         <v>294</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="T10" t="s" s="11">
         <v>294</v>
@@ -2754,7 +2826,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -2772,7 +2844,7 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
@@ -2781,7 +2853,7 @@
         <v>294</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2828,7 +2900,7 @@
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>294</v>
+        <v>352</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2849,13 +2921,13 @@
         <v>294</v>
       </c>
       <c r="Q11" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R11" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="T11" t="s" s="11">
         <v>294</v>
@@ -2870,7 +2942,7 @@
         <v>294</v>
       </c>
       <c r="X11" t="s" s="11">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="Y11" t="s" s="11">
         <v>294</v>
@@ -2888,7 +2960,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>294</v>
+        <v>356</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -2944,7 +3016,7 @@
         <v>294</v>
       </c>
       <c r="J12" t="s" s="11">
-        <v>294</v>
+        <v>357</v>
       </c>
       <c r="K12" t="s" s="11">
         <v>294</v>
@@ -2971,7 +3043,7 @@
         <v>294</v>
       </c>
       <c r="S12" t="s" s="11">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="T12" t="s" s="11">
         <v>294</v>
@@ -2986,7 +3058,7 @@
         <v>294</v>
       </c>
       <c r="X12" t="s" s="11">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="Y12" t="s" s="11">
         <v>294</v>
@@ -3004,7 +3076,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>294</v>
+        <v>359</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3060,7 +3132,7 @@
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3081,13 +3153,13 @@
         <v>294</v>
       </c>
       <c r="Q13" t="s" s="11">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="R13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3120,7 +3192,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3197,13 +3269,13 @@
         <v>294</v>
       </c>
       <c r="Q14" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R14" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S14" t="s" s="11">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="T14" t="s" s="11">
         <v>294</v>
@@ -3236,7 +3308,7 @@
         <v>294</v>
       </c>
       <c r="AD14" t="s" s="11">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="AE14" t="s" s="11">
         <v>294</v>
@@ -3313,13 +3385,13 @@
         <v>294</v>
       </c>
       <c r="Q15" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R15" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S15" t="s" s="11">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="T15" t="s" s="11">
         <v>294</v>
@@ -3352,7 +3424,7 @@
         <v>294</v>
       </c>
       <c r="AD15" t="s" s="11">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="AE15" t="s" s="11">
         <v>294</v>
@@ -3408,7 +3480,7 @@
         <v>294</v>
       </c>
       <c r="J16" t="s" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K16" t="s" s="11">
         <v>294</v>
@@ -3429,13 +3501,13 @@
         <v>294</v>
       </c>
       <c r="Q16" t="s" s="11">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R16" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S16" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="T16" t="s" s="11">
         <v>294</v>
@@ -3450,7 +3522,7 @@
         <v>294</v>
       </c>
       <c r="X16" t="s" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Y16" t="s" s="11">
         <v>294</v>
@@ -3477,7 +3549,7 @@
         <v>294</v>
       </c>
       <c r="AG16" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH16" t="s" s="11">
         <v>294</v>
@@ -3640,7 +3712,7 @@
         <v>294</v>
       </c>
       <c r="J18" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s" s="11">
         <v>294</v>
@@ -3661,13 +3733,13 @@
         <v>294</v>
       </c>
       <c r="Q18" t="s" s="11">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="R18" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S18" t="s" s="11">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="T18" t="s" s="11">
         <v>294</v>
@@ -3682,7 +3754,7 @@
         <v>294</v>
       </c>
       <c r="X18" t="s" s="11">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="Y18" t="s" s="11">
         <v>294</v>
@@ -3709,7 +3781,7 @@
         <v>294</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AH18" t="s" s="11">
         <v>294</v>
@@ -3756,7 +3828,7 @@
         <v>294</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="K19" t="s" s="11">
         <v>294</v>
@@ -3798,7 +3870,7 @@
         <v>294</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="Y19" t="s" s="11">
         <v>294</v>
@@ -3932,7 +4004,7 @@
         <v>294</v>
       </c>
       <c r="AD20" t="s" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE20" t="s" s="11">
         <v>294</v>
@@ -4164,7 +4236,7 @@
         <v>294</v>
       </c>
       <c r="AD22" t="s" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AE22" t="s" s="11">
         <v>294</v>
@@ -4380,7 +4452,7 @@
         <v>294</v>
       </c>
       <c r="J26" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K26" t="s" s="11">
         <v>294</v>
@@ -4401,16 +4473,16 @@
         <v>294</v>
       </c>
       <c r="Q26" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R26" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="T26" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U26" t="s" s="11">
         <v>294</v>
@@ -4440,7 +4512,7 @@
         <v>294</v>
       </c>
       <c r="AD26" t="s" s="11">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AE26" t="s" s="11">
         <v>294</v>
@@ -4523,10 +4595,10 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="T27" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U27" t="s" s="11">
         <v>294</v>
@@ -4556,7 +4628,7 @@
         <v>294</v>
       </c>
       <c r="AD27" t="s" s="11">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="AE27" t="s" s="11">
         <v>294</v>
@@ -4639,10 +4711,10 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T28" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U28" t="s" s="11">
         <v>294</v>
@@ -4672,7 +4744,7 @@
         <v>294</v>
       </c>
       <c r="AD28" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE28" t="s" s="11">
         <v>294</v>
@@ -5335,7 +5407,7 @@
         <v>294</v>
       </c>
       <c r="S34" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T34" t="s" s="11">
         <v>294</v>
@@ -5716,7 +5788,7 @@
         <v>294</v>
       </c>
       <c r="AD37" t="s" s="11">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AE37" t="s" s="11">
         <v>294</v>
@@ -5802,7 +5874,7 @@
         <v>294</v>
       </c>
       <c r="T38" t="s" s="11">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="U38" t="s" s="11">
         <v>294</v>
@@ -6611,7 +6683,7 @@
         <v>294</v>
       </c>
       <c r="S45" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T45" t="s" s="11">
         <v>294</v>
@@ -6843,7 +6915,7 @@
         <v>294</v>
       </c>
       <c r="S47" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T47" t="s" s="11">
         <v>294</v>
@@ -6959,7 +7031,7 @@
         <v>294</v>
       </c>
       <c r="S48" t="s" s="11">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="T48" t="s" s="11">
         <v>294</v>
@@ -6992,7 +7064,7 @@
         <v>294</v>
       </c>
       <c r="AD48" t="s" s="11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE48" t="s" s="11">
         <v>294</v>
@@ -7075,7 +7147,7 @@
         <v>294</v>
       </c>
       <c r="S49" t="s" s="11">
-        <v>294</v>
+        <v>367</v>
       </c>
       <c r="T49" t="s" s="11">
         <v>294</v>
@@ -7108,7 +7180,7 @@
         <v>294</v>
       </c>
       <c r="AD49" t="s" s="11">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AE49" t="s" s="11">
         <v>294</v>
@@ -7191,7 +7263,7 @@
         <v>294</v>
       </c>
       <c r="S50" t="s" s="11">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="T50" t="s" s="11">
         <v>294</v>
@@ -7744,7 +7816,7 @@
         <v>294</v>
       </c>
       <c r="J55" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K55" t="s" s="11">
         <v>294</v>
@@ -7765,13 +7837,13 @@
         <v>294</v>
       </c>
       <c r="Q55" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R55" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T55" t="s" s="11">
         <v>294</v>
@@ -8092,7 +8164,7 @@
         <v>294</v>
       </c>
       <c r="J58" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K58" t="s" s="11">
         <v>294</v>
@@ -8113,13 +8185,13 @@
         <v>294</v>
       </c>
       <c r="Q58" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R58" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="T58" t="s" s="11">
         <v>294</v>
@@ -8351,7 +8423,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>
@@ -8440,7 +8512,7 @@
         <v>294</v>
       </c>
       <c r="J61" t="s" s="11">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="K61" t="s" s="11">
         <v>294</v>
@@ -8467,7 +8539,7 @@
         <v>294</v>
       </c>
       <c r="S61" t="s" s="11">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="T61" t="s" s="11">
         <v>294</v>
@@ -8693,7 +8765,7 @@
         <v>294</v>
       </c>
       <c r="Q63" t="s" s="11">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="R63" t="s" s="11">
         <v>294</v>
@@ -11003,7 +11075,7 @@
         <v>5512050.0</v>
       </c>
       <c r="L9" s="37" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="42" t="s">
         <v>176</v>
@@ -11015,16 +11087,16 @@
         <v>176</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" s="37" t="n">
         <v>0.0</v>
       </c>
       <c r="S9" s="37" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" s="37" t="n">
         <v>0.0</v>
@@ -11036,10 +11108,10 @@
         <v>0.0</v>
       </c>
       <c r="W9" s="37" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="X9" s="37" t="n">
-        <v>2327.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y9" s="37" t="n">
         <v>1.0</v>
@@ -11093,7 +11165,7 @@
         <v>176</v>
       </c>
       <c r="P10" s="26" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="26" t="n">
         <v>0.0</v>
@@ -11114,10 +11186,10 @@
         <v>0.0</v>
       </c>
       <c r="W10" s="26" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y10" s="26" t="n">
         <v>0.0</v>
@@ -11171,7 +11243,7 @@
         <v>176</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="27" t="n">
         <v>0.0</v>
@@ -11192,10 +11264,10 @@
         <v>0.0</v>
       </c>
       <c r="W11" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="X11" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y11" s="27" t="n">
         <v>0.0</v>
@@ -11249,7 +11321,7 @@
         <v>176</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="27" t="n">
         <v>0.0</v>
@@ -11270,10 +11342,10 @@
         <v>0.0</v>
       </c>
       <c r="W12" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="X12" s="27" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y12" s="27" t="n">
         <v>0.0</v>
@@ -11873,7 +11945,7 @@
         <v>176</v>
       </c>
       <c r="P20" s="27" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="27" t="n">
         <v>0.0</v>
@@ -11894,10 +11966,10 @@
         <v>0.0</v>
       </c>
       <c r="W20" s="27" t="n">
-        <v>3060.0</v>
+        <v>0.0</v>
       </c>
       <c r="X20" s="27" t="n">
-        <v>3060.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y20" s="27" t="n">
         <v>0.0</v>
@@ -13421,7 +13493,7 @@
         <v>1301605.0</v>
       </c>
       <c r="L40" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="44" t="s">
         <v>176</v>
@@ -13436,13 +13508,13 @@
         <v>176</v>
       </c>
       <c r="Q40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R40" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T40" s="27" t="n">
         <v>0.0</v>
@@ -13457,7 +13529,7 @@
         <v>0.0</v>
       </c>
       <c r="X40" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y40" s="27" t="n">
         <v>0.0</v>
@@ -13811,7 +13883,7 @@
         <v>12800.0</v>
       </c>
       <c r="L45" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M45" s="44" t="s">
         <v>176</v>
@@ -13826,13 +13898,13 @@
         <v>176</v>
       </c>
       <c r="Q45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R45" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T45" s="27" t="n">
         <v>0.0</v>
@@ -13847,7 +13919,7 @@
         <v>0.0</v>
       </c>
       <c r="X45" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y45" s="27" t="n">
         <v>0.0</v>
@@ -13889,7 +13961,7 @@
         <v>800.0</v>
       </c>
       <c r="L46" s="27" t="n">
-        <v>50.0</v>
+        <v>0.0</v>
       </c>
       <c r="M46" s="44" t="s">
         <v>176</v>
@@ -13904,13 +13976,13 @@
         <v>176</v>
       </c>
       <c r="Q46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="R46" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="T46" s="27" t="n">
         <v>0.0</v>
@@ -13925,7 +13997,7 @@
         <v>0.0</v>
       </c>
       <c r="X46" s="27" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="Y46" s="27" t="n">
         <v>0.0</v>
@@ -15545,28 +15617,28 @@
         <v>7187063.0</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -15607,28 +15679,28 @@
         <v>2142855.0</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -15668,29 +15740,29 @@
       <c r="I11" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>349</v>
+      <c r="J11" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R11" s="8" t="n">
         <v>1.0</v>
@@ -15979,28 +16051,28 @@
         <v>7205339.0</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="M16" s="8" t="n">
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -16041,28 +16113,28 @@
         <v>1021524.0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>349</v>
+        <v>204</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>204</v>
+        <v>374</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.0</v>
@@ -16102,29 +16174,29 @@
       <c r="I18" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>0.0</v>
+      <c r="J18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>374</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -16164,29 +16236,29 @@
       <c r="I19" s="0" t="n">
         <v>1021524.0</v>
       </c>
-      <c r="J19" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>349</v>
+      <c r="J19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K19" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.0</v>
@@ -16350,29 +16422,29 @@
       <c r="I22" s="0" t="n">
         <v>571428.0</v>
       </c>
-      <c r="J22" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L22" s="0" t="n">
-        <v>0.0</v>
+      <c r="J22" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.0</v>
@@ -16474,29 +16546,29 @@
       <c r="I24" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J24" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" s="0" t="n">
-        <v>0.0</v>
+      <c r="J24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.0</v>
@@ -16536,30 +16608,30 @@
       <c r="I25" s="0" t="n">
         <v>1247142.0</v>
       </c>
-      <c r="J25" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="K25" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L25" t="s" s="0">
-        <v>348</v>
+      <c r="J25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O25" s="0" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>0.0</v>
@@ -16913,25 +16985,25 @@
         <v>204</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="M31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>5527.0</v>
@@ -17249,29 +17321,29 @@
       <c r="I36" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J36" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L36" s="8" t="n">
-        <v>0.0</v>
+      <c r="J36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="M36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="8" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R36" s="8" t="n">
         <v>5527.0</v>
@@ -17589,29 +17661,29 @@
       <c r="I41" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0.0</v>
+      <c r="J41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>5527.0</v>
@@ -17725,29 +17797,29 @@
       <c r="I43" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J43" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>0.0</v>
+      <c r="J43" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>5527.0</v>
@@ -18133,29 +18205,29 @@
       <c r="I49" s="8" t="n">
         <v>857142.0</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>345</v>
+      <c r="J49" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M49" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P49" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="8" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="R49" s="8" t="n">
         <v>5527.0</v>
@@ -18677,29 +18749,29 @@
       <c r="I57" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J57" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="K57" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L57" t="s" s="0">
-        <v>345</v>
+      <c r="J57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M57" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P57" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q57" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="R57" s="0" t="n">
         <v>5527.0</v>
@@ -21874,28 +21946,28 @@
         <v>2142855.0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>347</v>
+        <v>204</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="M104" s="8" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N104" s="8" t="n">
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O104" s="8" t="n">
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q104" s="8" t="n">
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R104" s="8" t="n">
         <v>5527.0</v>
@@ -22213,29 +22285,29 @@
       <c r="I109" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J109" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K109" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L109" s="0" t="n">
-        <v>0.0</v>
+      <c r="J109" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q109" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R109" s="0" t="n">
         <v>5527.0</v>
@@ -22349,29 +22421,29 @@
       <c r="I111" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J111" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K111" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L111" s="0" t="n">
-        <v>0.0</v>
+      <c r="J111" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>375</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="R111" s="0" t="n">
         <v>5527.0</v>
@@ -22417,29 +22489,29 @@
       <c r="I112" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J112" t="s" s="0">
-        <v>347</v>
-      </c>
-      <c r="K112" t="s" s="0">
-        <v>345</v>
-      </c>
-      <c r="L112" t="s" s="0">
-        <v>348</v>
+      <c r="J112" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K112" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L112" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="O112" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P112" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q112" s="0" t="n">
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="R112" s="0" t="n">
         <v>5527.0</v>
@@ -22757,29 +22829,29 @@
       <c r="I117" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>349</v>
+      <c r="J117" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L117" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N117" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="O117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P117" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q117" s="8" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R117" s="8" t="n">
         <v>5034.0</v>
@@ -22825,29 +22897,29 @@
       <c r="I118" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J118" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K118" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L118" t="s" s="0">
-        <v>349</v>
+      <c r="J118" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K118" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L118" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N118" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P118" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q118" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R118" s="0" t="n">
         <v>5034.0</v>
@@ -22893,29 +22965,29 @@
       <c r="I119" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J119" t="s" s="0">
-        <v>349</v>
-      </c>
-      <c r="K119" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="L119" t="s" s="0">
-        <v>349</v>
+      <c r="J119" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K119" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L119" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N119" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="O119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P119" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q119" s="0" t="n">
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="R119" s="0" t="n">
         <v>5034.0</v>
@@ -26711,27 +26783,27 @@
       </c>
       <c r="H8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J9/(24*60*60),"[h]:mm")</f>
-        <v>0:50</v>
+        <v>0:00</v>
       </c>
       <c r="I8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>2:12</v>
+        <v>1:02</v>
       </c>
       <c r="K8" s="26" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="26" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M8" s="26" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N8" s="26" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -26739,7 +26811,7 @@
       </c>
       <c r="O8" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -26782,27 +26854,27 @@
       </c>
       <c r="H9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J10/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>1:02</v>
       </c>
       <c r="K9" s="27" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L9" s="27" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M9" s="27" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N9" s="27" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -26810,7 +26882,7 @@
       </c>
       <c r="O9" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>9083.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -26853,7 +26925,7 @@
       </c>
       <c r="H10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J11/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K11/(24*60*60),"[h]:mm")</f>
@@ -26861,11 +26933,11 @@
       </c>
       <c r="J10" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L11/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K10" s="27" t="n">
         <f>bc_ttnl_theo_kh!M11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L10" s="27" t="n">
         <f>bc_ttnl_theo_kh!N11</f>
@@ -26873,7 +26945,7 @@
       </c>
       <c r="M10" s="27" t="n">
         <f>bc_ttnl_theo_kh!O11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" s="27" t="n">
         <f>bc_ttnl_theo_kh!P11</f>
@@ -26881,7 +26953,7 @@
       </c>
       <c r="O10" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q11</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="24"/>
       <c r="Q10" s="24"/>
@@ -27207,27 +27279,27 @@
       </c>
       <c r="H15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J16/(24*60*60),"[h]:mm")</f>
-        <v>0:50</v>
+        <v>0:00</v>
       </c>
       <c r="I15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>1:02</v>
       </c>
       <c r="J15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>2:12</v>
+        <v>1:02</v>
       </c>
       <c r="K15" s="27" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="L15" s="27" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>7553.0</v>
+        <v>5710.0</v>
       </c>
       <c r="M15" s="27" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="N15" s="27" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -27235,7 +27307,7 @@
       </c>
       <c r="O15" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>9872.0</v>
+        <v>5710.0</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="22"/>
@@ -27277,27 +27349,27 @@
       </c>
       <c r="H16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J17/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:22</v>
       </c>
       <c r="K16" s="27" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L16" s="27" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M16" s="27" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N16" s="27" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -27305,7 +27377,7 @@
       </c>
       <c r="O16" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>789.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="24"/>
@@ -27351,11 +27423,11 @@
       </c>
       <c r="I17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K17" s="27" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -27363,11 +27435,11 @@
       </c>
       <c r="L17" s="27" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M17" s="27" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N17" s="27" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -27375,7 +27447,7 @@
       </c>
       <c r="O17" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="24"/>
@@ -27417,7 +27489,7 @@
       </c>
       <c r="H18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J19/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K19/(24*60*60),"[h]:mm")</f>
@@ -27425,11 +27497,11 @@
       </c>
       <c r="J18" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L19/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K18" s="27" t="n">
         <f>bc_ttnl_theo_kh!M19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L18" s="27" t="n">
         <f>bc_ttnl_theo_kh!N19</f>
@@ -27437,7 +27509,7 @@
       </c>
       <c r="M18" s="27" t="n">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" s="27" t="n">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -27445,7 +27517,7 @@
       </c>
       <c r="O18" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="24"/>
@@ -27631,11 +27703,11 @@
       </c>
       <c r="I21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K22/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L22/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K21" s="27" t="n">
         <f>bc_ttnl_theo_kh!M22</f>
@@ -27643,11 +27715,11 @@
       </c>
       <c r="L21" s="27" t="n">
         <f>bc_ttnl_theo_kh!N22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M21" s="27" t="n">
         <f>bc_ttnl_theo_kh!O22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N21" s="27" t="n">
         <f>bc_ttnl_theo_kh!P22</f>
@@ -27655,7 +27727,7 @@
       </c>
       <c r="O21" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q22</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="24"/>
@@ -27771,11 +27843,11 @@
       </c>
       <c r="I23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K24/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L24/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K23" s="27" t="n">
         <f>bc_ttnl_theo_kh!M24</f>
@@ -27783,11 +27855,11 @@
       </c>
       <c r="L23" s="27" t="n">
         <f>bc_ttnl_theo_kh!N24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M23" s="27" t="n">
         <f>bc_ttnl_theo_kh!O24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N23" s="27" t="n">
         <f>bc_ttnl_theo_kh!P24</f>
@@ -27795,7 +27867,7 @@
       </c>
       <c r="O23" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q24</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="24"/>
@@ -27837,27 +27909,27 @@
       </c>
       <c r="H24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J25/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K25/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J24" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L25/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:00</v>
       </c>
       <c r="K24" s="27" t="n">
         <f>bc_ttnl_theo_kh!M25</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L24" s="27" t="n">
         <f>bc_ttnl_theo_kh!N25</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="27" t="n">
         <f>bc_ttnl_theo_kh!O25</f>
-        <v>2319.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" s="27" t="n">
         <f>bc_ttnl_theo_kh!P25</f>
@@ -27865,7 +27937,7 @@
       </c>
       <c r="O24" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q25</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="27"/>
       <c r="Q24" s="24"/>
@@ -28261,11 +28333,11 @@
       </c>
       <c r="I30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K31/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="J30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L31/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="K30" s="26" t="n">
         <f>bc_ttnl_theo_kh!M31</f>
@@ -28273,11 +28345,11 @@
       </c>
       <c r="L30" s="26" t="n">
         <f>bc_ttnl_theo_kh!N31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M30" s="26" t="n">
         <f>bc_ttnl_theo_kh!O31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N30" s="26" t="n">
         <f>bc_ttnl_theo_kh!P31</f>
@@ -28285,7 +28357,7 @@
       </c>
       <c r="O30" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q31</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="22"/>
@@ -28643,11 +28715,11 @@
       </c>
       <c r="I35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K36/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L36/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K35" s="26" t="n">
         <f>bc_ttnl_theo_kh!M36</f>
@@ -28655,11 +28727,11 @@
       </c>
       <c r="L35" s="26" t="n">
         <f>bc_ttnl_theo_kh!N36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M35" s="26" t="n">
         <f>bc_ttnl_theo_kh!O36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N35" s="26" t="n">
         <f>bc_ttnl_theo_kh!P36</f>
@@ -28667,7 +28739,7 @@
       </c>
       <c r="O35" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q36</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="22"/>
@@ -29013,11 +29085,11 @@
       </c>
       <c r="I40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K40" s="27" t="n">
         <f>bc_ttnl_theo_kh!M41</f>
@@ -29025,11 +29097,11 @@
       </c>
       <c r="L40" s="27" t="n">
         <f>bc_ttnl_theo_kh!N41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M40" s="27" t="n">
         <f>bc_ttnl_theo_kh!O41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N40" s="27" t="n">
         <f>bc_ttnl_theo_kh!P41</f>
@@ -29037,7 +29109,7 @@
       </c>
       <c r="O40" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q41</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="24"/>
@@ -29161,11 +29233,11 @@
       </c>
       <c r="I42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K43/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L43/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K42" s="27" t="n">
         <f>bc_ttnl_theo_kh!M43</f>
@@ -29173,11 +29245,11 @@
       </c>
       <c r="L42" s="27" t="n">
         <f>bc_ttnl_theo_kh!N43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M42" s="27" t="n">
         <f>bc_ttnl_theo_kh!O43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N42" s="27" t="n">
         <f>bc_ttnl_theo_kh!P43</f>
@@ -29185,7 +29257,7 @@
       </c>
       <c r="O42" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q43</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="24"/>
@@ -29605,11 +29677,11 @@
       </c>
       <c r="I48" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K49/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J48" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L49/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="K48" s="26" t="n">
         <f>bc_ttnl_theo_kh!M49</f>
@@ -29617,11 +29689,11 @@
       </c>
       <c r="L48" s="26" t="n">
         <f>bc_ttnl_theo_kh!N49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M48" s="26" t="n">
         <f>bc_ttnl_theo_kh!O49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="N48" s="26" t="n">
         <f>bc_ttnl_theo_kh!P49</f>
@@ -29629,7 +29701,7 @@
       </c>
       <c r="O48" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q49</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P48" s="27"/>
       <c r="Q48" s="22"/>
@@ -30197,11 +30269,11 @@
       </c>
       <c r="I56" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K57/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J56" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L57/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="K56" s="27" t="n">
         <f>bc_ttnl_theo_kh!M57</f>
@@ -30209,11 +30281,11 @@
       </c>
       <c r="L56" s="27" t="n">
         <f>bc_ttnl_theo_kh!N57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M56" s="27" t="n">
         <f>bc_ttnl_theo_kh!O57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="N56" s="27" t="n">
         <f>bc_ttnl_theo_kh!P57</f>
@@ -30221,7 +30293,7 @@
       </c>
       <c r="O56" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q57</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="P56" s="27"/>
       <c r="Q56" s="24"/>
@@ -33674,27 +33746,27 @@
       </c>
       <c r="H103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J104/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K104/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:40</v>
       </c>
       <c r="J103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L104/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:40</v>
       </c>
       <c r="K103" s="26" t="n">
         <f>bc_ttnl_theo_kh!M104</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L103" s="26" t="n">
         <f>bc_ttnl_theo_kh!N104</f>
-        <v>7553.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M103" s="26" t="n">
         <f>bc_ttnl_theo_kh!O104</f>
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N103" s="26" t="n">
         <f>bc_ttnl_theo_kh!P104</f>
@@ -33702,7 +33774,7 @@
       </c>
       <c r="O103" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q104</f>
-        <v>9083.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P103" s="27"/>
       <c r="Q103" s="22"/>
@@ -34048,11 +34120,11 @@
       </c>
       <c r="I108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K109/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L109/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K108" s="27" t="n">
         <f>bc_ttnl_theo_kh!M109</f>
@@ -34060,11 +34132,11 @@
       </c>
       <c r="L108" s="27" t="n">
         <f>bc_ttnl_theo_kh!N109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M108" s="27" t="n">
         <f>bc_ttnl_theo_kh!O109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N108" s="27" t="n">
         <f>bc_ttnl_theo_kh!P109</f>
@@ -34072,7 +34144,7 @@
       </c>
       <c r="O108" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q109</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P108" s="27"/>
       <c r="Q108" s="24"/>
@@ -34196,11 +34268,11 @@
       </c>
       <c r="I110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K111/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="J110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L111/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:40</v>
       </c>
       <c r="K110" s="27" t="n">
         <f>bc_ttnl_theo_kh!M111</f>
@@ -34208,11 +34280,11 @@
       </c>
       <c r="L110" s="27" t="n">
         <f>bc_ttnl_theo_kh!N111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="M110" s="27" t="n">
         <f>bc_ttnl_theo_kh!O111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="N110" s="27" t="n">
         <f>bc_ttnl_theo_kh!P111</f>
@@ -34220,7 +34292,7 @@
       </c>
       <c r="O110" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q111</f>
-        <v>0.0</v>
+        <v>3684.0</v>
       </c>
       <c r="P110" s="27"/>
       <c r="Q110" s="24"/>
@@ -34266,27 +34338,27 @@
       </c>
       <c r="H111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J112/(24*60*60),"[h]:mm")</f>
-        <v>0:30</v>
+        <v>0:00</v>
       </c>
       <c r="I111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K112/(24*60*60),"[h]:mm")</f>
-        <v>1:22</v>
+        <v>0:00</v>
       </c>
       <c r="J111" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L112/(24*60*60),"[h]:mm")</f>
-        <v>1:52</v>
+        <v>0:00</v>
       </c>
       <c r="K111" s="27" t="n">
         <f>bc_ttnl_theo_kh!M112</f>
-        <v>1530.0</v>
+        <v>0.0</v>
       </c>
       <c r="L111" s="27" t="n">
         <f>bc_ttnl_theo_kh!N112</f>
-        <v>7553.0</v>
+        <v>0.0</v>
       </c>
       <c r="M111" s="27" t="n">
         <f>bc_ttnl_theo_kh!O112</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="N111" s="27" t="n">
         <f>bc_ttnl_theo_kh!P112</f>
@@ -34294,7 +34366,7 @@
       </c>
       <c r="O111" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q112</f>
-        <v>9083.0</v>
+        <v>0.0</v>
       </c>
       <c r="P111" s="27"/>
       <c r="Q111" s="24"/>
@@ -34636,7 +34708,7 @@
       </c>
       <c r="H116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J117/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K117/(24*60*60),"[h]:mm")</f>
@@ -34644,11 +34716,11 @@
       </c>
       <c r="J116" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L117/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K116" s="26" t="n">
         <f>bc_ttnl_theo_kh!M117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L116" s="26" t="n">
         <f>bc_ttnl_theo_kh!N117</f>
@@ -34656,7 +34728,7 @@
       </c>
       <c r="M116" s="26" t="n">
         <f>bc_ttnl_theo_kh!O117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N116" s="26" t="n">
         <f>bc_ttnl_theo_kh!P117</f>
@@ -34664,7 +34736,7 @@
       </c>
       <c r="O116" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q117</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P116" s="27"/>
       <c r="Q116" s="22"/>
@@ -34710,7 +34782,7 @@
       </c>
       <c r="H117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J118/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K118/(24*60*60),"[h]:mm")</f>
@@ -34718,11 +34790,11 @@
       </c>
       <c r="J117" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L118/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K117" s="27" t="n">
         <f>bc_ttnl_theo_kh!M118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L117" s="27" t="n">
         <f>bc_ttnl_theo_kh!N118</f>
@@ -34730,7 +34802,7 @@
       </c>
       <c r="M117" s="27" t="n">
         <f>bc_ttnl_theo_kh!O118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N117" s="27" t="n">
         <f>bc_ttnl_theo_kh!P118</f>
@@ -34738,7 +34810,7 @@
       </c>
       <c r="O117" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q118</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P117" s="27"/>
       <c r="Q117" s="24"/>
@@ -34784,7 +34856,7 @@
       </c>
       <c r="H118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J119/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="I118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K119/(24*60*60),"[h]:mm")</f>
@@ -34792,11 +34864,11 @@
       </c>
       <c r="J118" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L119/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="K118" s="27" t="n">
         <f>bc_ttnl_theo_kh!M119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="L118" s="27" t="n">
         <f>bc_ttnl_theo_kh!N119</f>
@@ -34804,7 +34876,7 @@
       </c>
       <c r="M118" s="27" t="n">
         <f>bc_ttnl_theo_kh!O119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="N118" s="27" t="n">
         <f>bc_ttnl_theo_kh!P119</f>
@@ -34812,7 +34884,7 @@
       </c>
       <c r="O118" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q119</f>
-        <v>789.0</v>
+        <v>0.0</v>
       </c>
       <c r="P118" s="27"/>
       <c r="Q118" s="24"/>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21739" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30239" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -2668,7 +2668,7 @@
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2695,7 +2695,7 @@
         <v>294</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="T9" t="s" s="11">
         <v>294</v>
@@ -2728,7 +2728,7 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
@@ -2737,7 +2737,7 @@
         <v>294</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2784,7 +2784,7 @@
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2811,7 +2811,7 @@
         <v>294</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>353</v>
+        <v>294</v>
       </c>
       <c r="T10" t="s" s="11">
         <v>294</v>
@@ -2844,7 +2844,7 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
@@ -2853,7 +2853,7 @@
         <v>294</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2900,7 +2900,7 @@
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2927,7 +2927,7 @@
         <v>294</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="T11" t="s" s="11">
         <v>294</v>
@@ -2960,7 +2960,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -3016,7 +3016,7 @@
         <v>294</v>
       </c>
       <c r="J12" t="s" s="11">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="K12" t="s" s="11">
         <v>294</v>
@@ -3043,7 +3043,7 @@
         <v>294</v>
       </c>
       <c r="S12" t="s" s="11">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="T12" t="s" s="11">
         <v>294</v>
@@ -3076,7 +3076,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>359</v>
+        <v>294</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3132,7 +3132,7 @@
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3159,7 +3159,7 @@
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3192,7 +3192,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>362</v>
+        <v>294</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3275,7 +3275,7 @@
         <v>294</v>
       </c>
       <c r="S14" t="s" s="11">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="T14" t="s" s="11">
         <v>294</v>
@@ -3308,7 +3308,7 @@
         <v>294</v>
       </c>
       <c r="AD14" t="s" s="11">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AE14" t="s" s="11">
         <v>294</v>
@@ -3391,7 +3391,7 @@
         <v>294</v>
       </c>
       <c r="S15" t="s" s="11">
-        <v>363</v>
+        <v>294</v>
       </c>
       <c r="T15" t="s" s="11">
         <v>294</v>
@@ -3424,7 +3424,7 @@
         <v>294</v>
       </c>
       <c r="AD15" t="s" s="11">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="AE15" t="s" s="11">
         <v>294</v>
@@ -3549,7 +3549,7 @@
         <v>294</v>
       </c>
       <c r="AG16" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH16" t="s" s="11">
         <v>294</v>
@@ -3781,7 +3781,7 @@
         <v>294</v>
       </c>
       <c r="AG18" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AH18" t="s" s="11">
         <v>294</v>
@@ -4479,7 +4479,7 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>365</v>
+        <v>294</v>
       </c>
       <c r="T26" t="s" s="11">
         <v>294</v>
@@ -4512,7 +4512,7 @@
         <v>294</v>
       </c>
       <c r="AD26" t="s" s="11">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AE26" t="s" s="11">
         <v>294</v>
@@ -4595,7 +4595,7 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="T27" t="s" s="11">
         <v>294</v>
@@ -4628,7 +4628,7 @@
         <v>294</v>
       </c>
       <c r="AD27" t="s" s="11">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="AE27" t="s" s="11">
         <v>294</v>
@@ -4711,7 +4711,7 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T28" t="s" s="11">
         <v>294</v>
@@ -4744,7 +4744,7 @@
         <v>294</v>
       </c>
       <c r="AD28" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE28" t="s" s="11">
         <v>294</v>
@@ -5407,7 +5407,7 @@
         <v>294</v>
       </c>
       <c r="S34" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T34" t="s" s="11">
         <v>294</v>
@@ -5788,7 +5788,7 @@
         <v>294</v>
       </c>
       <c r="AD37" t="s" s="11">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE37" t="s" s="11">
         <v>294</v>
@@ -6683,7 +6683,7 @@
         <v>294</v>
       </c>
       <c r="S45" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T45" t="s" s="11">
         <v>294</v>
@@ -6915,7 +6915,7 @@
         <v>294</v>
       </c>
       <c r="S47" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T47" t="s" s="11">
         <v>294</v>
@@ -7031,7 +7031,7 @@
         <v>294</v>
       </c>
       <c r="S48" t="s" s="11">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="T48" t="s" s="11">
         <v>294</v>
@@ -7064,7 +7064,7 @@
         <v>294</v>
       </c>
       <c r="AD48" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AE48" t="s" s="11">
         <v>294</v>
@@ -7147,7 +7147,7 @@
         <v>294</v>
       </c>
       <c r="S49" t="s" s="11">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="T49" t="s" s="11">
         <v>294</v>
@@ -7180,7 +7180,7 @@
         <v>294</v>
       </c>
       <c r="AD49" t="s" s="11">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AE49" t="s" s="11">
         <v>294</v>
@@ -7263,7 +7263,7 @@
         <v>294</v>
       </c>
       <c r="S50" t="s" s="11">
-        <v>369</v>
+        <v>294</v>
       </c>
       <c r="T50" t="s" s="11">
         <v>294</v>
@@ -7843,7 +7843,7 @@
         <v>294</v>
       </c>
       <c r="S55" t="s" s="11">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="T55" t="s" s="11">
         <v>294</v>
@@ -8191,7 +8191,7 @@
         <v>294</v>
       </c>
       <c r="S58" t="s" s="11">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="T58" t="s" s="11">
         <v>294</v>
@@ -8423,7 +8423,7 @@
         <v>294</v>
       </c>
       <c r="S60" t="s" s="11">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="T60" t="s" s="11">
         <v>294</v>
@@ -8539,7 +8539,7 @@
         <v>294</v>
       </c>
       <c r="S61" t="s" s="11">
-        <v>372</v>
+        <v>294</v>
       </c>
       <c r="T61" t="s" s="11">
         <v>294</v>
@@ -15616,29 +15616,29 @@
       <c r="I9" s="8" t="n">
         <v>7187063.0</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>373</v>
+      <c r="J9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -15678,29 +15678,29 @@
       <c r="I10" s="8" t="n">
         <v>2142855.0</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>373</v>
+      <c r="J10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -16050,29 +16050,29 @@
       <c r="I16" s="8" t="n">
         <v>7205339.0</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>373</v>
+      <c r="J16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -16112,29 +16112,29 @@
       <c r="I17" s="0" t="n">
         <v>1021524.0</v>
       </c>
-      <c r="J17" t="s" s="0">
-        <v>204</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>374</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>374</v>
+      <c r="J17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K17" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" s="0" t="n">
         <v>0.0</v>
@@ -16174,29 +16174,29 @@
       <c r="I18" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J18" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>374</v>
+      <c r="J18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -16422,29 +16422,29 @@
       <c r="I22" s="0" t="n">
         <v>571428.0</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>375</v>
+      <c r="J22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P22" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R22" s="0" t="n">
         <v>0.0</v>
@@ -16546,29 +16546,29 @@
       <c r="I24" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L24" s="0" t="s">
-        <v>375</v>
+      <c r="J24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0.0</v>
@@ -16981,29 +16981,29 @@
       <c r="I31" s="8" t="n">
         <v>7205339.0</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>375</v>
+      <c r="J31" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P31" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q31" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R31" s="8" t="n">
         <v>5527.0</v>
@@ -17321,29 +17321,29 @@
       <c r="I36" s="8" t="n">
         <v>1285713.0</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>375</v>
+      <c r="J36" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P36" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q36" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R36" s="8" t="n">
         <v>5527.0</v>
@@ -17661,29 +17661,29 @@
       <c r="I41" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>375</v>
+      <c r="J41" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R41" s="0" t="n">
         <v>5527.0</v>
@@ -17797,29 +17797,29 @@
       <c r="I43" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J43" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L43" s="0" t="s">
-        <v>375</v>
+      <c r="J43" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P43" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R43" s="0" t="n">
         <v>5527.0</v>
@@ -21945,29 +21945,29 @@
       <c r="I104" s="8" t="n">
         <v>2142855.0</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K104" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>375</v>
+      <c r="J104" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L104" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P104" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q104" s="8" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R104" s="8" t="n">
         <v>5527.0</v>
@@ -22285,29 +22285,29 @@
       <c r="I109" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J109" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K109" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L109" s="0" t="s">
-        <v>375</v>
+      <c r="J109" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P109" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q109" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R109" s="0" t="n">
         <v>5527.0</v>
@@ -22421,29 +22421,29 @@
       <c r="I111" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J111" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="L111" s="0" t="s">
-        <v>375</v>
+      <c r="J111" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="O111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P111" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q111" s="0" t="n">
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="R111" s="0" t="n">
         <v>5527.0</v>
@@ -26787,11 +26787,11 @@
       </c>
       <c r="I8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J8" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K8" s="26" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
@@ -26799,11 +26799,11 @@
       </c>
       <c r="L8" s="26" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="26" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" s="26" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="O8" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -26858,11 +26858,11 @@
       </c>
       <c r="I9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J9" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K9" s="27" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
@@ -26870,11 +26870,11 @@
       </c>
       <c r="L9" s="27" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="27" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="27" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -26882,7 +26882,7 @@
       </c>
       <c r="O9" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -27283,11 +27283,11 @@
       </c>
       <c r="I15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="J15" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>1:02</v>
+        <v>0:00</v>
       </c>
       <c r="K15" s="27" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
@@ -27295,11 +27295,11 @@
       </c>
       <c r="L15" s="27" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" s="27" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" s="27" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -27307,7 +27307,7 @@
       </c>
       <c r="O15" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>5710.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" s="27"/>
       <c r="Q15" s="22"/>
@@ -27353,11 +27353,11 @@
       </c>
       <c r="I16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="J16" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="K16" s="27" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
@@ -27365,11 +27365,11 @@
       </c>
       <c r="L16" s="27" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="27" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="27" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -27377,7 +27377,7 @@
       </c>
       <c r="O16" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="24"/>
@@ -27423,11 +27423,11 @@
       </c>
       <c r="I17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="J17" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:22</v>
+        <v>0:00</v>
       </c>
       <c r="K17" s="27" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -27435,11 +27435,11 @@
       </c>
       <c r="L17" s="27" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="27" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="27" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -27447,7 +27447,7 @@
       </c>
       <c r="O17" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>2026.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="24"/>
@@ -27703,11 +27703,11 @@
       </c>
       <c r="I21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K22/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J21" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L22/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K21" s="27" t="n">
         <f>bc_ttnl_theo_kh!M22</f>
@@ -27715,11 +27715,11 @@
       </c>
       <c r="L21" s="27" t="n">
         <f>bc_ttnl_theo_kh!N22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M21" s="27" t="n">
         <f>bc_ttnl_theo_kh!O22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N21" s="27" t="n">
         <f>bc_ttnl_theo_kh!P22</f>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="O21" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q22</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P21" s="27"/>
       <c r="Q21" s="24"/>
@@ -27843,11 +27843,11 @@
       </c>
       <c r="I23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K24/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J23" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L24/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K23" s="27" t="n">
         <f>bc_ttnl_theo_kh!M24</f>
@@ -27855,11 +27855,11 @@
       </c>
       <c r="L23" s="27" t="n">
         <f>bc_ttnl_theo_kh!N24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M23" s="27" t="n">
         <f>bc_ttnl_theo_kh!O24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N23" s="27" t="n">
         <f>bc_ttnl_theo_kh!P24</f>
@@ -27867,7 +27867,7 @@
       </c>
       <c r="O23" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q24</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="27"/>
       <c r="Q23" s="24"/>
@@ -28333,11 +28333,11 @@
       </c>
       <c r="I30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K31/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J30" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L31/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K30" s="26" t="n">
         <f>bc_ttnl_theo_kh!M31</f>
@@ -28345,11 +28345,11 @@
       </c>
       <c r="L30" s="26" t="n">
         <f>bc_ttnl_theo_kh!N31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="26" t="n">
         <f>bc_ttnl_theo_kh!O31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N30" s="26" t="n">
         <f>bc_ttnl_theo_kh!P31</f>
@@ -28357,7 +28357,7 @@
       </c>
       <c r="O30" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q31</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P30" s="27"/>
       <c r="Q30" s="22"/>
@@ -28715,11 +28715,11 @@
       </c>
       <c r="I35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K36/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J35" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L36/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K35" s="26" t="n">
         <f>bc_ttnl_theo_kh!M36</f>
@@ -28727,11 +28727,11 @@
       </c>
       <c r="L35" s="26" t="n">
         <f>bc_ttnl_theo_kh!N36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M35" s="26" t="n">
         <f>bc_ttnl_theo_kh!O36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N35" s="26" t="n">
         <f>bc_ttnl_theo_kh!P36</f>
@@ -28739,7 +28739,7 @@
       </c>
       <c r="O35" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q36</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="22"/>
@@ -29085,11 +29085,11 @@
       </c>
       <c r="I40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K41/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J40" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L41/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K40" s="27" t="n">
         <f>bc_ttnl_theo_kh!M41</f>
@@ -29097,11 +29097,11 @@
       </c>
       <c r="L40" s="27" t="n">
         <f>bc_ttnl_theo_kh!N41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="27" t="n">
         <f>bc_ttnl_theo_kh!O41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="27" t="n">
         <f>bc_ttnl_theo_kh!P41</f>
@@ -29109,7 +29109,7 @@
       </c>
       <c r="O40" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q41</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P40" s="27"/>
       <c r="Q40" s="24"/>
@@ -29233,11 +29233,11 @@
       </c>
       <c r="I42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K43/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J42" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L43/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K42" s="27" t="n">
         <f>bc_ttnl_theo_kh!M43</f>
@@ -29245,11 +29245,11 @@
       </c>
       <c r="L42" s="27" t="n">
         <f>bc_ttnl_theo_kh!N43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M42" s="27" t="n">
         <f>bc_ttnl_theo_kh!O43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N42" s="27" t="n">
         <f>bc_ttnl_theo_kh!P43</f>
@@ -29257,7 +29257,7 @@
       </c>
       <c r="O42" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q43</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P42" s="27"/>
       <c r="Q42" s="24"/>
@@ -33750,11 +33750,11 @@
       </c>
       <c r="I103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K104/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J103" s="22" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L104/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K103" s="26" t="n">
         <f>bc_ttnl_theo_kh!M104</f>
@@ -33762,11 +33762,11 @@
       </c>
       <c r="L103" s="26" t="n">
         <f>bc_ttnl_theo_kh!N104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M103" s="26" t="n">
         <f>bc_ttnl_theo_kh!O104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N103" s="26" t="n">
         <f>bc_ttnl_theo_kh!P104</f>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="O103" s="26" t="n">
         <f>bc_ttnl_theo_kh!Q104</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P103" s="27"/>
       <c r="Q103" s="22"/>
@@ -34120,11 +34120,11 @@
       </c>
       <c r="I108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K109/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J108" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L109/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K108" s="27" t="n">
         <f>bc_ttnl_theo_kh!M109</f>
@@ -34132,11 +34132,11 @@
       </c>
       <c r="L108" s="27" t="n">
         <f>bc_ttnl_theo_kh!N109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M108" s="27" t="n">
         <f>bc_ttnl_theo_kh!O109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N108" s="27" t="n">
         <f>bc_ttnl_theo_kh!P109</f>
@@ -34144,7 +34144,7 @@
       </c>
       <c r="O108" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q109</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P108" s="27"/>
       <c r="Q108" s="24"/>
@@ -34268,11 +34268,11 @@
       </c>
       <c r="I110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K111/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="J110" s="24" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L111/(24*60*60),"[h]:mm")</f>
-        <v>0:40</v>
+        <v>0:00</v>
       </c>
       <c r="K110" s="27" t="n">
         <f>bc_ttnl_theo_kh!M111</f>
@@ -34280,11 +34280,11 @@
       </c>
       <c r="L110" s="27" t="n">
         <f>bc_ttnl_theo_kh!N111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="M110" s="27" t="n">
         <f>bc_ttnl_theo_kh!O111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="N110" s="27" t="n">
         <f>bc_ttnl_theo_kh!P111</f>
@@ -34292,7 +34292,7 @@
       </c>
       <c r="O110" s="27" t="n">
         <f>bc_ttnl_theo_kh!Q111</f>
-        <v>3684.0</v>
+        <v>0.0</v>
       </c>
       <c r="P110" s="27"/>
       <c r="Q110" s="24"/>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30239" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32965" uniqueCount="384">
   <si>
     <t>CXD</t>
   </si>
@@ -1189,6 +1189,30 @@
   <si>
     <t>2400.000000</t>
   </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2196</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
 </sst>
 </file>
 
@@ -2489,76 +2513,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="11">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="11">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="11">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="11">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="11">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="11">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="11">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="11">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="11">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="11">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="11">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="11">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="11">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="11">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="11">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="11">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="11">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="11">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="11">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="11">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="11">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="11">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="11">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="11">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2569,76 +2593,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="11">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="11">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="11">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="11">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="11">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="11">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="11">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="11">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="11">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="11">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="11">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="11">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="11">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="11">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="11">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="11">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="11">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="11">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="11">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="11">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="11">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="11">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="11">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2656,13 +2680,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>294</v>
@@ -2710,7 +2734,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2728,16 +2752,16 @@
         <v>294</v>
       </c>
       <c r="AD9" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="AF9" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG9" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH9" t="s" s="11">
         <v>294</v>
@@ -2772,13 +2796,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="I10" t="s" s="11">
         <v>294</v>
@@ -2826,7 +2850,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -2844,16 +2868,16 @@
         <v>294</v>
       </c>
       <c r="AD10" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="AF10" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG10" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH10" t="s" s="11">
         <v>294</v>
@@ -2888,13 +2912,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="11">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G11" t="s" s="11">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s" s="11">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s" s="11">
         <v>294</v>
@@ -2942,7 +2966,7 @@
         <v>294</v>
       </c>
       <c r="X11" t="s" s="11">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="Y11" t="s" s="11">
         <v>294</v>
@@ -2960,7 +2984,7 @@
         <v>294</v>
       </c>
       <c r="AD11" t="s" s="11">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="AE11" t="s" s="11">
         <v>294</v>
@@ -3058,7 +3082,7 @@
         <v>294</v>
       </c>
       <c r="X12" t="s" s="11">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="Y12" t="s" s="11">
         <v>294</v>
@@ -3076,7 +3100,7 @@
         <v>294</v>
       </c>
       <c r="AD12" t="s" s="11">
-        <v>294</v>
+        <v>381</v>
       </c>
       <c r="AE12" t="s" s="11">
         <v>294</v>
@@ -3120,13 +3144,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I13" t="s" s="11">
         <v>294</v>
@@ -3174,7 +3198,7 @@
         <v>294</v>
       </c>
       <c r="X13" t="s" s="11">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="Y13" t="s" s="11">
         <v>294</v>
@@ -3192,7 +3216,7 @@
         <v>294</v>
       </c>
       <c r="AD13" t="s" s="11">
-        <v>294</v>
+        <v>383</v>
       </c>
       <c r="AE13" t="s" s="11">
         <v>294</v>
@@ -3314,7 +3338,7 @@
         <v>294</v>
       </c>
       <c r="AF14" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG14" t="s" s="11">
         <v>294</v>
@@ -3430,7 +3454,7 @@
         <v>294</v>
       </c>
       <c r="AF15" t="s" s="11">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="AG15" t="s" s="11">
         <v>294</v>
@@ -4013,7 +4037,7 @@
         <v>294</v>
       </c>
       <c r="AG20" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH20" t="s" s="11">
         <v>294</v>
@@ -4129,7 +4153,7 @@
         <v>294</v>
       </c>
       <c r="AG21" t="s" s="11">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="AH21" t="s" s="11">
         <v>294</v>
@@ -4273,76 +4297,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="11">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="11">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="11">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="11">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="11">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="11">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="11">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="11">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="11">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="11">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="11">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="11">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="11">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="11">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="11">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="11">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="11">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="11">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="11">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="11">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="11">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="11">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="11">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="11">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4353,76 +4377,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="11">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="11">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="11">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="11">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="11">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="11">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="11">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="11">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="11">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="11">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="11">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="11">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="11">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="11">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="11">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="11">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="11">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="11">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="11">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="11">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="11">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="11">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="11">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="11">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32965" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92937" uniqueCount="409">
   <si>
     <t>CXD</t>
   </si>
@@ -1212,6 +1212,81 @@
   </si>
   <si>
     <t>1232</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>440000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>46992</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>125232</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>37992</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>480000</t>
+  </si>
+  <si>
+    <t>23002</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>100779</t>
+  </si>
+  <si>
+    <t>77777</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>445000</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>75000</t>
   </si>
 </sst>
 </file>
@@ -2680,19 +2755,19 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="H9" t="s" s="11">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="I9" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J9" t="s" s="11">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="K9" t="s" s="11">
         <v>294</v>
@@ -2713,16 +2788,16 @@
         <v>294</v>
       </c>
       <c r="Q9" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R9" t="s" s="11">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="S9" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T9" t="s" s="11">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="U9" t="s" s="11">
         <v>294</v>
@@ -2746,7 +2821,7 @@
         <v>294</v>
       </c>
       <c r="AB9" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC9" t="s" s="11">
         <v>294</v>
@@ -2796,19 +2871,19 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s" s="11">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="H10" t="s" s="11">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="I10" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J10" t="s" s="11">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="K10" t="s" s="11">
         <v>294</v>
@@ -2829,16 +2904,16 @@
         <v>294</v>
       </c>
       <c r="Q10" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R10" t="s" s="11">
-        <v>294</v>
+        <v>406</v>
       </c>
       <c r="S10" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T10" t="s" s="11">
-        <v>294</v>
+        <v>390</v>
       </c>
       <c r="U10" t="s" s="11">
         <v>294</v>
@@ -2862,7 +2937,7 @@
         <v>294</v>
       </c>
       <c r="AB10" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC10" t="s" s="11">
         <v>294</v>
@@ -2912,19 +2987,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G11" t="s" s="11">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s" s="11">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="I11" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J11" t="s" s="11">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="K11" t="s" s="11">
         <v>294</v>
@@ -2945,16 +3020,16 @@
         <v>294</v>
       </c>
       <c r="Q11" t="s" s="11">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="R11" t="s" s="11">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="S11" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T11" t="s" s="11">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="U11" t="s" s="11">
         <v>294</v>
@@ -2978,7 +3053,7 @@
         <v>294</v>
       </c>
       <c r="AB11" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC11" t="s" s="11">
         <v>294</v>
@@ -3028,13 +3103,13 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H12" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s" s="11">
         <v>294</v>
@@ -3061,16 +3136,16 @@
         <v>294</v>
       </c>
       <c r="Q12" t="s" s="11">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="R12" t="s" s="11">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="S12" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T12" t="s" s="11">
-        <v>294</v>
+        <v>391</v>
       </c>
       <c r="U12" t="s" s="11">
         <v>294</v>
@@ -3144,19 +3219,19 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G13" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s" s="11">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J13" t="s" s="11">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="K13" t="s" s="11">
         <v>294</v>
@@ -3177,13 +3252,13 @@
         <v>294</v>
       </c>
       <c r="Q13" t="s" s="11">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="R13" t="s" s="11">
         <v>294</v>
       </c>
       <c r="S13" t="s" s="11">
-        <v>294</v>
+        <v>389</v>
       </c>
       <c r="T13" t="s" s="11">
         <v>294</v>
@@ -3210,7 +3285,7 @@
         <v>294</v>
       </c>
       <c r="AB13" t="s" s="11">
-        <v>294</v>
+        <v>386</v>
       </c>
       <c r="AC13" t="s" s="11">
         <v>294</v>
@@ -3260,13 +3335,13 @@
         <v>32</v>
       </c>
       <c r="F14" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s" s="11">
         <v>294</v>
@@ -3296,7 +3371,7 @@
         <v>294</v>
       </c>
       <c r="R14" t="s" s="11">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="S14" t="s" s="11">
         <v>294</v>
@@ -3376,13 +3451,13 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I15" t="s" s="11">
         <v>294</v>
@@ -3412,7 +3487,7 @@
         <v>294</v>
       </c>
       <c r="R15" t="s" s="11">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="S15" t="s" s="11">
         <v>294</v>
@@ -3492,49 +3567,49 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="11">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="G16" t="s" s="11">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="H16" t="s" s="11">
+        <v>323</v>
+      </c>
+      <c r="I16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="J16" t="s" s="11">
+        <v>401</v>
+      </c>
+      <c r="K16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="L16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="M16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="N16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="O16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="P16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="Q16" t="s" s="11">
+        <v>294</v>
+      </c>
+      <c r="R16" t="s" s="11">
         <v>309</v>
       </c>
-      <c r="I16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="J16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="K16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="L16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="M16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="N16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="O16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="P16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="Q16" t="s" s="11">
-        <v>294</v>
-      </c>
-      <c r="R16" t="s" s="11">
-        <v>294</v>
-      </c>
       <c r="S16" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T16" t="s" s="11">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="U16" t="s" s="11">
         <v>294</v>
@@ -3650,7 +3725,7 @@
         <v>294</v>
       </c>
       <c r="T17" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="U17" t="s" s="11">
         <v>294</v>
@@ -3724,13 +3799,13 @@
         <v>36</v>
       </c>
       <c r="F18" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H18" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I18" t="s" s="11">
         <v>294</v>
@@ -3760,13 +3835,13 @@
         <v>294</v>
       </c>
       <c r="R18" t="s" s="11">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="S18" t="s" s="11">
         <v>294</v>
       </c>
       <c r="T18" t="s" s="11">
-        <v>294</v>
+        <v>388</v>
       </c>
       <c r="U18" t="s" s="11">
         <v>294</v>
@@ -3840,19 +3915,19 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s" s="11">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I19" t="s" s="11">
         <v>294</v>
       </c>
       <c r="J19" t="s" s="11">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="K19" t="s" s="11">
         <v>294</v>
@@ -3882,7 +3957,7 @@
         <v>294</v>
       </c>
       <c r="T19" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="U19" t="s" s="11">
         <v>294</v>
@@ -3968,7 +4043,7 @@
         <v>294</v>
       </c>
       <c r="J20" t="s" s="11">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="K20" t="s" s="11">
         <v>294</v>
@@ -3992,7 +4067,7 @@
         <v>294</v>
       </c>
       <c r="R20" t="s" s="11">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="S20" t="s" s="11">
         <v>294</v>
@@ -4108,7 +4183,7 @@
         <v>294</v>
       </c>
       <c r="R21" t="s" s="11">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="S21" t="s" s="11">
         <v>294</v>
@@ -4200,7 +4275,7 @@
         <v>294</v>
       </c>
       <c r="J22" t="s" s="11">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="K22" t="s" s="11">
         <v>294</v>
@@ -4503,7 +4578,7 @@
         <v>294</v>
       </c>
       <c r="S26" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="T26" t="s" s="11">
         <v>294</v>
@@ -4619,7 +4694,7 @@
         <v>294</v>
       </c>
       <c r="S27" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="T27" t="s" s="11">
         <v>294</v>
@@ -4735,7 +4810,7 @@
         <v>294</v>
       </c>
       <c r="S28" t="s" s="11">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="T28" t="s" s="11">
         <v>294</v>
@@ -4851,7 +4926,7 @@
         <v>294</v>
       </c>
       <c r="S29" t="s" s="11">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="T29" t="s" s="11">
         <v>294</v>
@@ -6011,7 +6086,7 @@
         <v>294</v>
       </c>
       <c r="S39" t="s" s="11">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="T39" t="s" s="11">
         <v>294</v>
@@ -6127,7 +6202,7 @@
         <v>294</v>
       </c>
       <c r="S40" t="s" s="11">
-        <v>294</v>
+        <v>398</v>
       </c>
       <c r="T40" t="s" s="11">
         <v>294</v>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284134" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290118" uniqueCount="393">
   <si>
     <t>CXD</t>
   </si>
@@ -2541,76 +2541,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="11">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="11">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="11">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="11">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="11">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="11">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="11">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="11">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="11">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="11">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="11">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="11">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="11">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="11">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="11">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="11">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="11">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="11">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="11">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="11">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="11">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="11">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="11">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="11">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2621,76 +2621,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="11">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="11">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="11">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="11">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="11">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="11">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="11">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="11">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="11">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="11">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="11">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="11">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="11">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="11">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="11">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="11">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="11">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="11">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="11">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="11">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="11">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="11">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="11">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="11">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4325,76 +4325,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="11">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="11">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="11">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="11">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="11">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="11">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="11">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="11">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="11">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="11">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="11">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="11">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="11">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="11">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="11">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="11">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="11">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="11">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="11">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="11">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="11">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="11">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="11">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="11">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4405,76 +4405,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="11">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="11">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="11">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="11">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="11">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="11">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="11">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="11">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="11">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="11">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="11">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="11">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="11">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="11">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="11">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="11">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="11">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="11">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="11">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="11">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="11">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="11">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="11">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="11">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290118" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306726" uniqueCount="397">
   <si>
     <t>CXD</t>
   </si>
@@ -1240,6 +1240,18 @@
   <si>
     <t>3540.000000</t>
   </si>
+  <si>
+    <t>6181</t>
+  </si>
+  <si>
+    <t>6035</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>4193</t>
+  </si>
 </sst>
 </file>
 
@@ -2541,76 +2553,76 @@
       <c r="J7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" t="s" s="11">
         <v>27</v>
       </c>
     </row>
@@ -2621,76 +2633,76 @@
       <c r="J8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" t="s" s="11">
         <v>102</v>
       </c>
     </row>
@@ -2762,7 +2774,7 @@
         <v>294</v>
       </c>
       <c r="X9" t="s" s="11">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Y9" t="s" s="11">
         <v>294</v>
@@ -2878,7 +2890,7 @@
         <v>294</v>
       </c>
       <c r="X10" t="s" s="11">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Y10" t="s" s="11">
         <v>294</v>
@@ -3574,7 +3586,7 @@
         <v>294</v>
       </c>
       <c r="X16" t="s" s="11">
-        <v>294</v>
+        <v>394</v>
       </c>
       <c r="Y16" t="s" s="11">
         <v>294</v>
@@ -3690,7 +3702,7 @@
         <v>294</v>
       </c>
       <c r="X17" t="s" s="11">
-        <v>294</v>
+        <v>395</v>
       </c>
       <c r="Y17" t="s" s="11">
         <v>294</v>
@@ -3922,7 +3934,7 @@
         <v>294</v>
       </c>
       <c r="X19" t="s" s="11">
-        <v>294</v>
+        <v>396</v>
       </c>
       <c r="Y19" t="s" s="11">
         <v>294</v>
@@ -4325,76 +4337,76 @@
       <c r="J24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" t="s" s="11">
         <v>27</v>
       </c>
     </row>
@@ -4405,76 +4417,76 @@
       <c r="J25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" t="s" s="11">
         <v>102</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s" s="11">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" t="s" s="11">
         <v>95</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" t="s" s="11">
         <v>96</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" t="s" s="11">
         <v>97</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" t="s" s="11">
         <v>98</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" t="s" s="11">
         <v>2</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" t="s" s="11">
         <v>99</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" t="s" s="11">
         <v>3</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" t="s" s="11">
         <v>100</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" t="s" s="11">
         <v>101</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" t="s" s="11">
         <v>102</v>
       </c>
     </row>
@@ -11580,10 +11592,10 @@
         <v>109</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="27" t="n">
-        <v>99999.0</v>
+        <v>154888.0</v>
       </c>
       <c r="I15" s="27" t="n">
         <v>244870.0</v>
@@ -11592,7 +11604,7 @@
         <v>1302506.0</v>
       </c>
       <c r="K15" s="27" t="n">
-        <v>1647375.0</v>
+        <v>1702264.0</v>
       </c>
       <c r="L15" s="27" t="n">
         <v>0.0</v>
@@ -11658,10 +11670,10 @@
         <v>109</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H16" s="27" t="n">
-        <v>154888.0</v>
+        <v>99999.0</v>
       </c>
       <c r="I16" s="27" t="n">
         <v>244870.0</v>
@@ -11670,7 +11682,7 @@
         <v>1302506.0</v>
       </c>
       <c r="K16" s="27" t="n">
-        <v>1702264.0</v>
+        <v>1647375.0</v>
       </c>
       <c r="L16" s="27" t="n">
         <v>0.0</v>

--- a/baocao/baocao.xlsx
+++ b/baocao/baocao.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306726" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307230" uniqueCount="397">
   <si>
     <t>CXD</t>
   </si>
@@ -11139,7 +11139,7 @@
         <v>7181746.0</v>
       </c>
       <c r="L9" s="37" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M9" s="42" t="s">
         <v>176</v>
@@ -11154,13 +11154,13 @@
         <v>176</v>
       </c>
       <c r="Q9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R9" s="37" t="n">
         <v>0.0</v>
       </c>
       <c r="S9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T9" s="37" t="n">
         <v>0.0</v>
@@ -11175,7 +11175,7 @@
         <v>0.0</v>
       </c>
       <c r="X9" s="37" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y9" s="37" t="n">
         <v>1.0</v>
@@ -11217,7 +11217,7 @@
         <v>5193458.0</v>
       </c>
       <c r="L10" s="26" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>176</v>
@@ -11232,13 +11232,13 @@
         <v>176</v>
       </c>
       <c r="Q10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R10" s="26" t="n">
         <v>0.0</v>
       </c>
       <c r="S10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T10" s="26" t="n">
         <v>0.0</v>
@@ -11253,7 +11253,7 @@
         <v>0.0</v>
       </c>
       <c r="X10" s="26" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Y10" s="26" t="n">
         <v>0.0</v>
@@ -11919,7 +11919,7 @@
         <v>4702.0</v>
       </c>
       <c r="L19" s="27" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="M19" s="44" t="s">
         <v>176</v>
@@ -11934,13 +11934,13 @@
         <v>176</v>
       </c>
       <c r="Q19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="R19" s="27" t="n">
         <v>0.0</v>
       </c>
       <c r="S19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="T19" s="27" t="n">
         <v>0.0</v>
@@ -11955,7 +11955,7 @@
         <v>0.0</v>
       </c>
       <c r="X19" s="27" t="n">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y19" s="27" t="n">
         <v>0.0</v>
